--- a/data/trans_dic/P25A$voluntad-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$voluntad-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4192905060801267</v>
+        <v>0.4305588206196289</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6429221048169933</v>
+        <v>0.6765508323346232</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5608646731061788</v>
+        <v>0.5411374685768179</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3948331635343308</v>
+        <v>0.3658741807237586</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5074127631777742</v>
+        <v>0.4619755521134071</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4000119747474288</v>
+        <v>0.4075312857159907</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4506122290839968</v>
+        <v>0.4606855612360746</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6575803466203199</v>
+        <v>0.6490848917210263</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.532090180281832</v>
+        <v>0.5416593468753024</v>
       </c>
     </row>
     <row r="6">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9269291610964273</v>
+        <v>0.9228174605623335</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1</v>
@@ -719,22 +719,22 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8724517710289423</v>
+        <v>0.8748078472991232</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9005335096323573</v>
+        <v>0.8999257455159645</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8294141162541523</v>
+        <v>0.8298592751767649</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8428910081866119</v>
+        <v>0.8520714458446413</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9187410236000415</v>
+        <v>0.9189143171423138</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8851951758224075</v>
+        <v>0.8854751454988279</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5793119831435539</v>
+        <v>0.5833710573696017</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6370896927771175</v>
+        <v>0.6230123365932694</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7351180076267285</v>
+        <v>0.7255438556786978</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4735549011027607</v>
+        <v>0.4632282395675024</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6376212090398469</v>
+        <v>0.6315809710877051</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5258521451454701</v>
+        <v>0.5189019988713544</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5481314502878527</v>
+        <v>0.5538443602643528</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.675612696936958</v>
+        <v>0.6687682117489603</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6638963176092249</v>
+        <v>0.673437096605376</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8601636808410363</v>
+        <v>0.8617084494507924</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.842452401532731</v>
+        <v>0.8442215574601318</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9476530681347434</v>
+        <v>0.9478158760613616</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7103212396827838</v>
+        <v>0.706011122431104</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8324162150394171</v>
+        <v>0.8282941020056859</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7791236202773311</v>
+        <v>0.7727519931140914</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7420997305491353</v>
+        <v>0.7331226516338802</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8096236419427418</v>
+        <v>0.8156485697507648</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8304745071556755</v>
+        <v>0.8428202795666149</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6584297225858584</v>
+        <v>0.6491704004764617</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7385944067758514</v>
+        <v>0.7405432897420717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6551969316358349</v>
+        <v>0.6728089300536212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6110285986746077</v>
+        <v>0.6029860228449436</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7452248995527976</v>
+        <v>0.7488277400707112</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6477819978309369</v>
+        <v>0.6451402264987033</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6692056840590391</v>
+        <v>0.6701300249986412</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7669232036426906</v>
+        <v>0.7679425061767581</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6959864589157336</v>
+        <v>0.6936862216035543</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8510069790896705</v>
+        <v>0.8414731736561887</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.883449284957523</v>
+        <v>0.8799330692137953</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8659331134022626</v>
+        <v>0.8717046724407479</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8276517204719565</v>
+        <v>0.8316743524573414</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8887982521992891</v>
+        <v>0.8913286338560307</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8385169547501845</v>
+        <v>0.8425026324582846</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8107290368990115</v>
+        <v>0.8155602068745459</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8688678726357751</v>
+        <v>0.8716727524666908</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8299089334815628</v>
+        <v>0.8273772194389619</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5816519100106765</v>
+        <v>0.5826978471968223</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7220878727009826</v>
+        <v>0.7261538910772265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4215238860125437</v>
+        <v>0.4257202353121611</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5578773035738027</v>
+        <v>0.5684577873140875</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6841160360421443</v>
+        <v>0.701607258063169</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5446942515090394</v>
+        <v>0.5626647662454055</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6113271718449643</v>
+        <v>0.6058921483849108</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7393552035516018</v>
+        <v>0.7396169762089088</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5160281131416756</v>
+        <v>0.5194287921094286</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7566688694735939</v>
+        <v>0.7555957271566824</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8502264287393912</v>
+        <v>0.8543363589713432</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6341223834515362</v>
+        <v>0.6318441997604203</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7990559137555693</v>
+        <v>0.8076776655300052</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8639207692846598</v>
+        <v>0.8713490329118573</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7639991929733905</v>
+        <v>0.7573540894142894</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7458677282428769</v>
+        <v>0.7444336520371927</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8395333261462161</v>
+        <v>0.842769402755708</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6605226082067397</v>
+        <v>0.6625771055139678</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4249148069425829</v>
+        <v>0.4281271979028161</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5708615740378936</v>
+        <v>0.5745905456477686</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4850785174305316</v>
+        <v>0.4874049663204571</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.363192808399772</v>
+        <v>0.331729227452208</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5796016902601266</v>
+        <v>0.5761080228693088</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5788060243880249</v>
+        <v>0.5981499965873629</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4512078681944023</v>
+        <v>0.4407697933907445</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6069946313382668</v>
+        <v>0.6005542986853647</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5397428942572389</v>
+        <v>0.5470596469868044</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6058751386595213</v>
+        <v>0.6011167135785922</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.731190585811195</v>
+        <v>0.7420353793357974</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6621720792959311</v>
+        <v>0.6540248960491988</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8323897788078745</v>
+        <v>0.8166897186006997</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8453352175164488</v>
+        <v>0.8388213232676791</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8294390731232839</v>
+        <v>0.8449525995685263</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5998288352270806</v>
+        <v>0.6076587395966946</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7392349155501159</v>
+        <v>0.7442570593807892</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6881817421131369</v>
+        <v>0.6945192882976894</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3693032976012329</v>
+        <v>0.3646715222350251</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4898322732203783</v>
+        <v>0.4909295307346791</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4241141996810336</v>
+        <v>0.4249374290711803</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2820370723838011</v>
+        <v>0.2938337276246827</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.298480342474311</v>
+        <v>0.2837115531303012</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.444748882970778</v>
+        <v>0.4252344715183787</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3786296143420756</v>
+        <v>0.3819661242113641</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5011086337610078</v>
+        <v>0.4969191561968453</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4549961338785514</v>
+        <v>0.4557527159924367</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5461491273561458</v>
+        <v>0.5432423154544557</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6490034626151906</v>
+        <v>0.6567391246785842</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6198894970707953</v>
+        <v>0.6059336564159626</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.796132939158501</v>
+        <v>0.7914995389849353</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9034724431588467</v>
+        <v>0.9015696644795883</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8269981671789369</v>
+        <v>0.807006823798732</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5450277495111191</v>
+        <v>0.55177616338061</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6576987496846064</v>
+        <v>0.64927216507459</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6152681718649085</v>
+        <v>0.6155138411097295</v>
       </c>
     </row>
     <row r="22">
@@ -1329,29 +1329,29 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3597768631506006</v>
+        <v>0.3679480836369425</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3811093221884267</v>
+        <v>0.3856790000825199</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4514234862950646</v>
+        <v>0.4444571494760487</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3958395092706081</v>
+        <v>0.2741589511205933</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3697645506632097</v>
+        <v>0.3473839569861819</v>
       </c>
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="n">
-        <v>0.3835579967678377</v>
+        <v>0.38261396400977</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4128206047257394</v>
+        <v>0.4086796999020734</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4492429471746781</v>
+        <v>0.4556623535175713</v>
       </c>
     </row>
     <row r="24">
@@ -1362,13 +1362,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5414603792121927</v>
+        <v>0.547890875579934</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5622448820705443</v>
+        <v>0.5680992071880551</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6222784031464302</v>
+        <v>0.6150568527241107</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>1</v>
@@ -1378,13 +1378,13 @@
       </c>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>0.5658303560659761</v>
+        <v>0.562173069155699</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.578909679833769</v>
+        <v>0.5791092287171624</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6256260730074793</v>
+        <v>0.629581752015717</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5349144469809471</v>
+        <v>0.5357665101311883</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6412244379207042</v>
+        <v>0.6369732152162566</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5613329628371764</v>
+        <v>0.5621053924015181</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5976925364590826</v>
+        <v>0.5994101406951278</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.7275233807978522</v>
+        <v>0.7290823096183738</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6508375961831104</v>
+        <v>0.647060162328379</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.5676105368318644</v>
+        <v>0.5664853890876614</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.6760217306435646</v>
+        <v>0.6778407519312715</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6031639810568723</v>
+        <v>0.6038671097022204</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6123322106212458</v>
+        <v>0.6164507688180445</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7079513288831764</v>
+        <v>0.7085626661974324</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6445516568805778</v>
+        <v>0.6410244520973802</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7186186299118598</v>
+        <v>0.7199217076099812</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.8138878409392467</v>
+        <v>0.8212771711365582</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7480666747539766</v>
+        <v>0.7487904730075948</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.632976930546761</v>
+        <v>0.6312384192065079</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.7319285241105475</v>
+        <v>0.7303578141698491</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.6660709451025458</v>
+        <v>0.6690875889087129</v>
       </c>
     </row>
     <row r="28">
@@ -1725,31 +1725,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4733</v>
+        <v>4860</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10791</v>
+        <v>11356</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5298</v>
+        <v>5112</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6097</v>
+        <v>5650</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9757</v>
+        <v>8883</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6600</v>
+        <v>6724</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12045</v>
+        <v>12315</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>23682</v>
+        <v>23376</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13806</v>
+        <v>14054</v>
       </c>
     </row>
     <row r="7">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10463</v>
+        <v>10417</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>16785</v>
@@ -1769,22 +1769,22 @@
         <v>9447</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13472</v>
+        <v>13509</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17316</v>
+        <v>17305</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13685</v>
+        <v>13692</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22531</v>
+        <v>22777</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>33088</v>
+        <v>33094</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22967</v>
+        <v>22975</v>
       </c>
     </row>
     <row r="8">
@@ -1869,31 +1869,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22856</v>
+        <v>23016</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>46339</v>
+        <v>45315</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>35723</v>
+        <v>35258</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>33180</v>
+        <v>32457</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>52835</v>
+        <v>52335</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>30483</v>
+        <v>30080</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>60031</v>
+        <v>60656</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>105123</v>
+        <v>104058</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>70746</v>
+        <v>71763</v>
       </c>
     </row>
     <row r="11">
@@ -1904,31 +1904,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33937</v>
+        <v>33998</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>61276</v>
+        <v>61404</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>46051</v>
+        <v>46059</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>49769</v>
+        <v>49467</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>68977</v>
+        <v>68635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>45164</v>
+        <v>44795</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>81274</v>
+        <v>80291</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>125975</v>
+        <v>126912</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>88497</v>
+        <v>89813</v>
       </c>
     </row>
     <row r="12">
@@ -2013,31 +2013,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>55936</v>
+        <v>55149</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>82988</v>
+        <v>83207</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>48694</v>
+        <v>50003</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>40489</v>
+        <v>39956</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>92478</v>
+        <v>92925</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>56963</v>
+        <v>56731</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>101195</v>
+        <v>101335</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>181342</v>
+        <v>181583</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>112928</v>
+        <v>112555</v>
       </c>
     </row>
     <row r="15">
@@ -2048,31 +2048,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>72296</v>
+        <v>71486</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>99264</v>
+        <v>98869</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>64356</v>
+        <v>64785</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>54843</v>
+        <v>55109</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>110295</v>
+        <v>110609</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>73736</v>
+        <v>74086</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>122596</v>
+        <v>123327</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>205447</v>
+        <v>206111</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>134658</v>
+        <v>134247</v>
       </c>
     </row>
     <row r="16">
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>73026</v>
+        <v>73158</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>122707</v>
+        <v>123398</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>45604</v>
+        <v>46058</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>32774</v>
+        <v>33395</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>62656</v>
+        <v>64258</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>48058</v>
+        <v>49643</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>112666</v>
+        <v>111665</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>193356</v>
+        <v>193425</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>101357</v>
+        <v>102025</v>
       </c>
     </row>
     <row r="19">
@@ -2192,31 +2192,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>95000</v>
+        <v>94865</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>144482</v>
+        <v>145180</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>68604</v>
+        <v>68358</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>46942</v>
+        <v>47449</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>79124</v>
+        <v>79804</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>67407</v>
+        <v>66821</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>137462</v>
+        <v>137198</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>219555</v>
+        <v>220401</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>129738</v>
+        <v>130141</v>
       </c>
     </row>
     <row r="20">
@@ -2301,31 +2301,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>54442</v>
+        <v>54853</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>80058</v>
+        <v>80581</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>64514</v>
+        <v>64823</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6334</v>
+        <v>5785</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>30000</v>
+        <v>29819</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>32945</v>
+        <v>34046</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>65679</v>
+        <v>64160</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>116544</v>
+        <v>115307</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>102505</v>
+        <v>103895</v>
       </c>
     </row>
     <row r="23">
@@ -2336,31 +2336,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>77627</v>
+        <v>77017</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>102543</v>
+        <v>104064</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>88066</v>
+        <v>86983</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14516</v>
+        <v>14242</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>43755</v>
+        <v>43417</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>47211</v>
+        <v>48094</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>87313</v>
+        <v>88453</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>141934</v>
+        <v>142898</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>130696</v>
+        <v>131900</v>
       </c>
     </row>
     <row r="24">
@@ -2445,31 +2445,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>45018</v>
+        <v>44453</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>79617</v>
+        <v>79796</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>52261</v>
+        <v>52362</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3820</v>
+        <v>3979</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3171</v>
+        <v>3014</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>11458</v>
+        <v>10955</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>51283</v>
+        <v>51735</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>86773</v>
+        <v>86048</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>67788</v>
+        <v>67901</v>
       </c>
     </row>
     <row r="27">
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>66576</v>
+        <v>66221</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>105489</v>
+        <v>106746</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>76385</v>
+        <v>74665</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10782</v>
+        <v>10719</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>9598</v>
+        <v>9577</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>21306</v>
+        <v>20791</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>73820</v>
+        <v>74734</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>113889</v>
+        <v>112430</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>91666</v>
+        <v>91703</v>
       </c>
     </row>
     <row r="28">
@@ -2589,29 +2589,29 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>40762</v>
+        <v>41688</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>53919</v>
+        <v>54565</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>49081</v>
+        <v>48324</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3655</v>
+        <v>2532</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2369</v>
+        <v>2226</v>
       </c>
       <c r="H30" s="6" t="inlineStr"/>
       <c r="I30" s="6" t="n">
-        <v>46999</v>
+        <v>46883</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>61051</v>
+        <v>60438</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>49966</v>
+        <v>50680</v>
       </c>
     </row>
     <row r="31">
@@ -2622,13 +2622,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>61347</v>
+        <v>62075</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>79546</v>
+        <v>80374</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>67658</v>
+        <v>66873</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>9234</v>
@@ -2638,13 +2638,13 @@
       </c>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="n">
-        <v>69333</v>
+        <v>68885</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>85613</v>
+        <v>85643</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>69583</v>
+        <v>70023</v>
       </c>
     </row>
     <row r="32">
@@ -2729,31 +2729,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>334090</v>
+        <v>334623</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>523286</v>
+        <v>519817</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>339884</v>
+        <v>340352</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>149862</v>
+        <v>150293</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>281234</v>
+        <v>281836</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>218557</v>
+        <v>217289</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>496831</v>
+        <v>495846</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>813008</v>
+        <v>815196</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>567761</v>
+        <v>568423</v>
       </c>
     </row>
     <row r="35">
@@ -2764,31 +2764,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>382443</v>
+        <v>385015</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>577740</v>
+        <v>578239</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>390273</v>
+        <v>388137</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>180183</v>
+        <v>180510</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>314619</v>
+        <v>317475</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>251208</v>
+        <v>251451</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>554047</v>
+        <v>552525</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>880244</v>
+        <v>878355</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>626975</v>
+        <v>629815</v>
       </c>
     </row>
     <row r="36">
